--- a/SQL/Tablas.xlsx
+++ b/SQL/Tablas.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cholele\Tesis\R y SQL\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cholele\Tesis\ENOE\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB58E7D-36D9-443F-952B-380B39009683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E5F70-E1D4-4B7C-AC8D-A2CD690EBF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4D88B666-AF1F-4442-BE1E-FF2DEFE09B05}"/>
   </bookViews>
   <sheets>
-    <sheet name="VIV" sheetId="1" r:id="rId1"/>
-    <sheet name="HOG" sheetId="6" r:id="rId2"/>
-    <sheet name="SCDMG" sheetId="7" r:id="rId3"/>
-    <sheet name="COE1" sheetId="8" r:id="rId4"/>
-    <sheet name="COE2" sheetId="9" r:id="rId5"/>
+    <sheet name="All" sheetId="10" r:id="rId1"/>
+    <sheet name="VIV" sheetId="1" r:id="rId2"/>
+    <sheet name="HOG" sheetId="6" r:id="rId3"/>
+    <sheet name="SCDMG" sheetId="7" r:id="rId4"/>
+    <sheet name="COE1" sheetId="8" r:id="rId5"/>
+    <sheet name="COE2" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="741">
   <si>
     <t>COLUMNA</t>
   </si>
@@ -1078,13 +1079,1198 @@
   </si>
   <si>
     <t>p9_m8</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>MUN</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>EST_D_TRI</t>
+  </si>
+  <si>
+    <t>EST_D_MEN</t>
+  </si>
+  <si>
+    <t>AGEB</t>
+  </si>
+  <si>
+    <t>T_LOC_TRI</t>
+  </si>
+  <si>
+    <t>T_LOC_MEN</t>
+  </si>
+  <si>
+    <t>CD_A</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>UPM</t>
+  </si>
+  <si>
+    <t>D_SEM</t>
+  </si>
+  <si>
+    <t>N_PRO_VIV</t>
+  </si>
+  <si>
+    <t>V_SEL</t>
+  </si>
+  <si>
+    <t>N_ENT</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>MES_CAL</t>
+  </si>
+  <si>
+    <t>FAC_TRI</t>
+  </si>
+  <si>
+    <t>FAC_MEN</t>
+  </si>
+  <si>
+    <t>N_HOG</t>
+  </si>
+  <si>
+    <t>H_MUD</t>
+  </si>
+  <si>
+    <t>R_PRE</t>
+  </si>
+  <si>
+    <t>P_DIA</t>
+  </si>
+  <si>
+    <t>P_MES</t>
+  </si>
+  <si>
+    <t>P_ANIO</t>
+  </si>
+  <si>
+    <t>R_DEF</t>
+  </si>
+  <si>
+    <t>D_DIA</t>
+  </si>
+  <si>
+    <t>D_MES</t>
+  </si>
+  <si>
+    <t>D_ANIO</t>
+  </si>
+  <si>
+    <t>E_OBS</t>
+  </si>
+  <si>
+    <t>P4_1</t>
+  </si>
+  <si>
+    <t>P4_2</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>TIPOLEV</t>
+  </si>
+  <si>
+    <t>HOGAR</t>
+  </si>
+  <si>
+    <t>VIVIENDA</t>
+  </si>
+  <si>
+    <t>N_REN</t>
+  </si>
+  <si>
+    <t>C_RES</t>
+  </si>
+  <si>
+    <t>PAR_C</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>NAC_DIA</t>
+  </si>
+  <si>
+    <t>NAC_MES</t>
+  </si>
+  <si>
+    <t>NAC_ANIO</t>
+  </si>
+  <si>
+    <t>L_NAC_C</t>
+  </si>
+  <si>
+    <t>CS_P12</t>
+  </si>
+  <si>
+    <t>CS_P13_1</t>
+  </si>
+  <si>
+    <t>CS_P13_2</t>
+  </si>
+  <si>
+    <t>CS_P14_C</t>
+  </si>
+  <si>
+    <t>CS_P15</t>
+  </si>
+  <si>
+    <t>CS_P16</t>
+  </si>
+  <si>
+    <t>CS_P17</t>
+  </si>
+  <si>
+    <t>N_HIJ</t>
+  </si>
+  <si>
+    <t>E_CON</t>
+  </si>
+  <si>
+    <t>CS_P20A_1</t>
+  </si>
+  <si>
+    <t>CS_P20A_C</t>
+  </si>
+  <si>
+    <t>CS_P20B_1</t>
+  </si>
+  <si>
+    <t>CS_P20B_C</t>
+  </si>
+  <si>
+    <t>CS_P20C_1</t>
+  </si>
+  <si>
+    <t>CS_AD_MOT</t>
+  </si>
+  <si>
+    <t>CS_P21_DES</t>
+  </si>
+  <si>
+    <t>CS_AD_DES</t>
+  </si>
+  <si>
+    <t>CS_NR_MOT</t>
+  </si>
+  <si>
+    <t>CS_P23_DES</t>
+  </si>
+  <si>
+    <t>CS_NR_ORI</t>
+  </si>
+  <si>
+    <t>ZONA</t>
+  </si>
+  <si>
+    <t>SALARIO</t>
+  </si>
+  <si>
+    <t>CLASE1</t>
+  </si>
+  <si>
+    <t>CLASE2</t>
+  </si>
+  <si>
+    <t>CLASE3</t>
+  </si>
+  <si>
+    <t>POS_OCU</t>
+  </si>
+  <si>
+    <t>SEG_SOC</t>
+  </si>
+  <si>
+    <t>RAMA</t>
+  </si>
+  <si>
+    <t>C_OCU11C</t>
+  </si>
+  <si>
+    <t>ING7C</t>
+  </si>
+  <si>
+    <t>DUR9C</t>
+  </si>
+  <si>
+    <t>EMPLE7C</t>
+  </si>
+  <si>
+    <t>MEDICA5C</t>
+  </si>
+  <si>
+    <t>BUSCAR5C</t>
+  </si>
+  <si>
+    <t>RAMA_EST1</t>
+  </si>
+  <si>
+    <t>RAMA_EST2</t>
+  </si>
+  <si>
+    <t>DUR_EST</t>
+  </si>
+  <si>
+    <t>AMBITO1</t>
+  </si>
+  <si>
+    <t>AMBITO2</t>
+  </si>
+  <si>
+    <t>TUE1</t>
+  </si>
+  <si>
+    <t>TUE2</t>
+  </si>
+  <si>
+    <t>TUE3</t>
+  </si>
+  <si>
+    <t>BUSQUEDA</t>
+  </si>
+  <si>
+    <t>D_ANT_LAB</t>
+  </si>
+  <si>
+    <t>D_CEXP_EST</t>
+  </si>
+  <si>
+    <t>DUR_DES</t>
+  </si>
+  <si>
+    <t>SUB_O</t>
+  </si>
+  <si>
+    <t>S_CLASIFI</t>
+  </si>
+  <si>
+    <t>REMUNE2C</t>
+  </si>
+  <si>
+    <t>PRE_ASA</t>
+  </si>
+  <si>
+    <t>TIP_CON</t>
+  </si>
+  <si>
+    <t>DISPO</t>
+  </si>
+  <si>
+    <t>NODISPO</t>
+  </si>
+  <si>
+    <t>C_INAC5C</t>
+  </si>
+  <si>
+    <t>PNEA_EST</t>
+  </si>
+  <si>
+    <t>NIV_INS</t>
+  </si>
+  <si>
+    <t>EDA5C</t>
+  </si>
+  <si>
+    <t>EDA7C</t>
+  </si>
+  <si>
+    <t>EDA12C</t>
+  </si>
+  <si>
+    <t>EDA19C</t>
+  </si>
+  <si>
+    <t>HIJ5C</t>
+  </si>
+  <si>
+    <t>DOMESTICO</t>
+  </si>
+  <si>
+    <t>ANIOS_ESC</t>
+  </si>
+  <si>
+    <t>HRSOCUP</t>
+  </si>
+  <si>
+    <t>INGOCUP</t>
+  </si>
+  <si>
+    <t>ING_X_HRS</t>
+  </si>
+  <si>
+    <t>TPG_P8A</t>
+  </si>
+  <si>
+    <t>TCCO</t>
+  </si>
+  <si>
+    <t>CP_ANOC</t>
+  </si>
+  <si>
+    <t>IMSSISSSTE</t>
+  </si>
+  <si>
+    <t>MA48ME1SM</t>
+  </si>
+  <si>
+    <t>P14APOYOS</t>
+  </si>
+  <si>
+    <t>SCIAN</t>
+  </si>
+  <si>
+    <t>T_TRA</t>
+  </si>
+  <si>
+    <t>EMP_PPAL</t>
+  </si>
+  <si>
+    <t>TUE_PPAL</t>
+  </si>
+  <si>
+    <t>TRANS_PPAL</t>
+  </si>
+  <si>
+    <t>MH_FIL2</t>
+  </si>
+  <si>
+    <t>MH_COL</t>
+  </si>
+  <si>
+    <t>SEC_INS</t>
+  </si>
+  <si>
+    <t>SDMGF</t>
+  </si>
+  <si>
+    <t>N_INF</t>
+  </si>
+  <si>
+    <t>P1A1</t>
+  </si>
+  <si>
+    <t>P1A2</t>
+  </si>
+  <si>
+    <t>P1A3</t>
+  </si>
+  <si>
+    <t>P1B</t>
+  </si>
+  <si>
+    <t>P1C</t>
+  </si>
+  <si>
+    <t>P1D</t>
+  </si>
+  <si>
+    <t>P1E</t>
+  </si>
+  <si>
+    <t>P2_1</t>
+  </si>
+  <si>
+    <t>P2_2</t>
+  </si>
+  <si>
+    <t>P2_3</t>
+  </si>
+  <si>
+    <t>P2_4</t>
+  </si>
+  <si>
+    <t>P2_9</t>
+  </si>
+  <si>
+    <t>P2A_DIA</t>
+  </si>
+  <si>
+    <t>P2A_SEM</t>
+  </si>
+  <si>
+    <t>P2A_MES</t>
+  </si>
+  <si>
+    <t>P2A_ANIO</t>
+  </si>
+  <si>
+    <t>P2B_DIA</t>
+  </si>
+  <si>
+    <t>P2B_SEM</t>
+  </si>
+  <si>
+    <t>P2B_MES</t>
+  </si>
+  <si>
+    <t>P2B_ANIO</t>
+  </si>
+  <si>
+    <t>P2B</t>
+  </si>
+  <si>
+    <t>P2C</t>
+  </si>
+  <si>
+    <t>P2D1</t>
+  </si>
+  <si>
+    <t>P2D2</t>
+  </si>
+  <si>
+    <t>P2D3</t>
+  </si>
+  <si>
+    <t>P2D4</t>
+  </si>
+  <si>
+    <t>P2D5</t>
+  </si>
+  <si>
+    <t>P2D6</t>
+  </si>
+  <si>
+    <t>P2D7</t>
+  </si>
+  <si>
+    <t>P2D8</t>
+  </si>
+  <si>
+    <t>P2D9</t>
+  </si>
+  <si>
+    <t>P2D10</t>
+  </si>
+  <si>
+    <t>P2D11</t>
+  </si>
+  <si>
+    <t>P2D99</t>
+  </si>
+  <si>
+    <t>P2E</t>
+  </si>
+  <si>
+    <t>P2F</t>
+  </si>
+  <si>
+    <t>P2G1</t>
+  </si>
+  <si>
+    <t>P2G2</t>
+  </si>
+  <si>
+    <t>P2H1</t>
+  </si>
+  <si>
+    <t>P2H2</t>
+  </si>
+  <si>
+    <t>P2H3</t>
+  </si>
+  <si>
+    <t>P2H4</t>
+  </si>
+  <si>
+    <t>P2H9</t>
+  </si>
+  <si>
+    <t>P2I</t>
+  </si>
+  <si>
+    <t>P2J</t>
+  </si>
+  <si>
+    <t>P2K_ANIO</t>
+  </si>
+  <si>
+    <t>P2K_MES</t>
+  </si>
+  <si>
+    <t>P2K</t>
+  </si>
+  <si>
+    <t>P3A</t>
+  </si>
+  <si>
+    <t>P3B</t>
+  </si>
+  <si>
+    <t>P3C1</t>
+  </si>
+  <si>
+    <t>P3C2</t>
+  </si>
+  <si>
+    <t>P3C3</t>
+  </si>
+  <si>
+    <t>P3C4</t>
+  </si>
+  <si>
+    <t>P3C9</t>
+  </si>
+  <si>
+    <t>P3D</t>
+  </si>
+  <si>
+    <t>P3E</t>
+  </si>
+  <si>
+    <t>P3F1</t>
+  </si>
+  <si>
+    <t>P3F2</t>
+  </si>
+  <si>
+    <t>P3G1_1</t>
+  </si>
+  <si>
+    <t>P3G1_2</t>
+  </si>
+  <si>
+    <t>P3G2_1</t>
+  </si>
+  <si>
+    <t>P3G2_2</t>
+  </si>
+  <si>
+    <t>P3G3_1</t>
+  </si>
+  <si>
+    <t>P3G3_2</t>
+  </si>
+  <si>
+    <t>P3G4_1</t>
+  </si>
+  <si>
+    <t>P3G4_2</t>
+  </si>
+  <si>
+    <t>P3G9</t>
+  </si>
+  <si>
+    <t>P3G_TOT</t>
+  </si>
+  <si>
+    <t>P3H</t>
+  </si>
+  <si>
+    <t>P3I</t>
+  </si>
+  <si>
+    <t>P3J1</t>
+  </si>
+  <si>
+    <t>P3J2</t>
+  </si>
+  <si>
+    <t>P3K1</t>
+  </si>
+  <si>
+    <t>P3K2</t>
+  </si>
+  <si>
+    <t>P3K3</t>
+  </si>
+  <si>
+    <t>P3K4</t>
+  </si>
+  <si>
+    <t>P3K5</t>
+  </si>
+  <si>
+    <t>P3K9</t>
+  </si>
+  <si>
+    <t>P3L</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P4_3</t>
+  </si>
+  <si>
+    <t>P4A</t>
+  </si>
+  <si>
+    <t>P4A_1</t>
+  </si>
+  <si>
+    <t>P4B</t>
+  </si>
+  <si>
+    <t>P4C</t>
+  </si>
+  <si>
+    <t>P4D1</t>
+  </si>
+  <si>
+    <t>P4D2</t>
+  </si>
+  <si>
+    <t>P4D3</t>
+  </si>
+  <si>
+    <t>P4E</t>
+  </si>
+  <si>
+    <t>P4F</t>
+  </si>
+  <si>
+    <t>P4G</t>
+  </si>
+  <si>
+    <t>P4H</t>
+  </si>
+  <si>
+    <t>P4I</t>
+  </si>
+  <si>
+    <t>P4I_1</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P5A</t>
+  </si>
+  <si>
+    <t>P5B_HLU</t>
+  </si>
+  <si>
+    <t>P5B_MLU</t>
+  </si>
+  <si>
+    <t>P5B_HMA</t>
+  </si>
+  <si>
+    <t>P5B_MMA</t>
+  </si>
+  <si>
+    <t>P5B_HMI</t>
+  </si>
+  <si>
+    <t>P5B_MMI</t>
+  </si>
+  <si>
+    <t>P5B_HJU</t>
+  </si>
+  <si>
+    <t>P5B_MJU</t>
+  </si>
+  <si>
+    <t>P5B_HVI</t>
+  </si>
+  <si>
+    <t>P5B_MVI</t>
+  </si>
+  <si>
+    <t>P5B_HSA</t>
+  </si>
+  <si>
+    <t>P5B_MSA</t>
+  </si>
+  <si>
+    <t>P5B_HDO</t>
+  </si>
+  <si>
+    <t>P5B_MDO</t>
+  </si>
+  <si>
+    <t>P5B_THRS</t>
+  </si>
+  <si>
+    <t>P5B_TDIA</t>
+  </si>
+  <si>
+    <t>P5C</t>
+  </si>
+  <si>
+    <t>P5D1</t>
+  </si>
+  <si>
+    <t>P5D_HLU</t>
+  </si>
+  <si>
+    <t>P5D_MLU</t>
+  </si>
+  <si>
+    <t>P5D_HMA</t>
+  </si>
+  <si>
+    <t>P5D_MMA</t>
+  </si>
+  <si>
+    <t>P5D_HMI</t>
+  </si>
+  <si>
+    <t>P5D_MMI</t>
+  </si>
+  <si>
+    <t>P5D_HJU</t>
+  </si>
+  <si>
+    <t>P5D_MJU</t>
+  </si>
+  <si>
+    <t>P5D_HVI</t>
+  </si>
+  <si>
+    <t>P5D_MVI</t>
+  </si>
+  <si>
+    <t>P5D_HSA</t>
+  </si>
+  <si>
+    <t>P5D_MSA</t>
+  </si>
+  <si>
+    <t>P5D_HDO</t>
+  </si>
+  <si>
+    <t>P5D_MDO</t>
+  </si>
+  <si>
+    <t>P5D_THRS</t>
+  </si>
+  <si>
+    <t>P5D_TDIA</t>
+  </si>
+  <si>
+    <t>P5E</t>
+  </si>
+  <si>
+    <t>P5F1</t>
+  </si>
+  <si>
+    <t>P5F2</t>
+  </si>
+  <si>
+    <t>P5F3</t>
+  </si>
+  <si>
+    <t>P5F4</t>
+  </si>
+  <si>
+    <t>P5F5</t>
+  </si>
+  <si>
+    <t>P5F6</t>
+  </si>
+  <si>
+    <t>P5F7</t>
+  </si>
+  <si>
+    <t>P5F8</t>
+  </si>
+  <si>
+    <t>P5F9</t>
+  </si>
+  <si>
+    <t>P5F10</t>
+  </si>
+  <si>
+    <t>P5F11</t>
+  </si>
+  <si>
+    <t>P5F12</t>
+  </si>
+  <si>
+    <t>P5F13</t>
+  </si>
+  <si>
+    <t>P5F14</t>
+  </si>
+  <si>
+    <t>P5F15</t>
+  </si>
+  <si>
+    <t>P5F99</t>
+  </si>
+  <si>
+    <t>COE1</t>
+  </si>
+  <si>
+    <t>P6_1</t>
+  </si>
+  <si>
+    <t>P6_2</t>
+  </si>
+  <si>
+    <t>P6_3</t>
+  </si>
+  <si>
+    <t>P6_4</t>
+  </si>
+  <si>
+    <t>P6_5</t>
+  </si>
+  <si>
+    <t>P6_6</t>
+  </si>
+  <si>
+    <t>P6_7</t>
+  </si>
+  <si>
+    <t>P6_8</t>
+  </si>
+  <si>
+    <t>P6_9</t>
+  </si>
+  <si>
+    <t>P6_10</t>
+  </si>
+  <si>
+    <t>P6_99</t>
+  </si>
+  <si>
+    <t>P6A1</t>
+  </si>
+  <si>
+    <t>P6A2</t>
+  </si>
+  <si>
+    <t>P6A3</t>
+  </si>
+  <si>
+    <t>P6A4</t>
+  </si>
+  <si>
+    <t>P6A9</t>
+  </si>
+  <si>
+    <t>P6B1</t>
+  </si>
+  <si>
+    <t>P6B2</t>
+  </si>
+  <si>
+    <t>P6C</t>
+  </si>
+  <si>
+    <t>P6D</t>
+  </si>
+  <si>
+    <t>P6E</t>
+  </si>
+  <si>
+    <t>P6E_C</t>
+  </si>
+  <si>
+    <t>P6F</t>
+  </si>
+  <si>
+    <t>P6F_C</t>
+  </si>
+  <si>
+    <t>P6G</t>
+  </si>
+  <si>
+    <t>P6H</t>
+  </si>
+  <si>
+    <t>P6H_C</t>
+  </si>
+  <si>
+    <t>P6I</t>
+  </si>
+  <si>
+    <t>P6I_C</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P7A</t>
+  </si>
+  <si>
+    <t>P7B</t>
+  </si>
+  <si>
+    <t>P7C</t>
+  </si>
+  <si>
+    <t>P8_1</t>
+  </si>
+  <si>
+    <t>P8_2</t>
+  </si>
+  <si>
+    <t>P8_3</t>
+  </si>
+  <si>
+    <t>P8_4</t>
+  </si>
+  <si>
+    <t>P8_9</t>
+  </si>
+  <si>
+    <t>P8A</t>
+  </si>
+  <si>
+    <t>P9_1</t>
+  </si>
+  <si>
+    <t>P9_H1</t>
+  </si>
+  <si>
+    <t>P9_M1</t>
+  </si>
+  <si>
+    <t>P9_2</t>
+  </si>
+  <si>
+    <t>P9_H2</t>
+  </si>
+  <si>
+    <t>P9_M2</t>
+  </si>
+  <si>
+    <t>P9_3</t>
+  </si>
+  <si>
+    <t>P9_H3</t>
+  </si>
+  <si>
+    <t>P9_M3</t>
+  </si>
+  <si>
+    <t>P9_4</t>
+  </si>
+  <si>
+    <t>P9_H4</t>
+  </si>
+  <si>
+    <t>P9_M4</t>
+  </si>
+  <si>
+    <t>P9_5</t>
+  </si>
+  <si>
+    <t>P9_H5</t>
+  </si>
+  <si>
+    <t>P9_M5</t>
+  </si>
+  <si>
+    <t>P9_6</t>
+  </si>
+  <si>
+    <t>P9_H6</t>
+  </si>
+  <si>
+    <t>P9_M6</t>
+  </si>
+  <si>
+    <t>P9_7</t>
+  </si>
+  <si>
+    <t>P9_H7</t>
+  </si>
+  <si>
+    <t>P9_M7</t>
+  </si>
+  <si>
+    <t>P9_8</t>
+  </si>
+  <si>
+    <t>P9_H8</t>
+  </si>
+  <si>
+    <t>P9_M8</t>
+  </si>
+  <si>
+    <t>COE2</t>
+  </si>
+  <si>
+    <t>COLUMNAS</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>R_DEF_sdmgf</t>
+  </si>
+  <si>
+    <t>UPM_sdmgf</t>
+  </si>
+  <si>
+    <t>D_SEM_sdmgf</t>
+  </si>
+  <si>
+    <t>N_PRO_VIV_sdmgf</t>
+  </si>
+  <si>
+    <t>N_ENT_sdmgf</t>
+  </si>
+  <si>
+    <t>PER_sdmgf</t>
+  </si>
+  <si>
+    <t>EDA_sdmgf</t>
+  </si>
+  <si>
+    <t>UR_sdmgf</t>
+  </si>
+  <si>
+    <t>FAC_TRI_sdmgf</t>
+  </si>
+  <si>
+    <t>FAC_MEN_sdmgf</t>
+  </si>
+  <si>
+    <t>LOC_hog</t>
+  </si>
+  <si>
+    <t>MUN_hog</t>
+  </si>
+  <si>
+    <t>EST_hog</t>
+  </si>
+  <si>
+    <t>EST_D_TRI_hog</t>
+  </si>
+  <si>
+    <t>EST_D_MEN_hog</t>
+  </si>
+  <si>
+    <t>AGEB_hog</t>
+  </si>
+  <si>
+    <t>T_LOC_TRI_hog</t>
+  </si>
+  <si>
+    <t>T_LOC_MEN_hog</t>
+  </si>
+  <si>
+    <t>UPM_hog</t>
+  </si>
+  <si>
+    <t>D_SEM_hog</t>
+  </si>
+  <si>
+    <t>N_PRO_VIV_hog</t>
+  </si>
+  <si>
+    <t>N_ENT_hog</t>
+  </si>
+  <si>
+    <t>PER_hog</t>
+  </si>
+  <si>
+    <t>R_DEF_hog</t>
+  </si>
+  <si>
+    <t>P4_1_sdmgf</t>
+  </si>
+  <si>
+    <t>P4_2_sdmgf</t>
+  </si>
+  <si>
+    <t>UR_hog</t>
+  </si>
+  <si>
+    <t>FAC_TRI_hog</t>
+  </si>
+  <si>
+    <t>FAC_MEN_hog</t>
+  </si>
+  <si>
+    <t>LOC_viv</t>
+  </si>
+  <si>
+    <t>MUN_viv</t>
+  </si>
+  <si>
+    <t>EST_viv</t>
+  </si>
+  <si>
+    <t>EST_D_TRI_viv</t>
+  </si>
+  <si>
+    <t>EST_D_MEN_viv</t>
+  </si>
+  <si>
+    <t>AGEB_viv</t>
+  </si>
+  <si>
+    <t>T_LOC_TRI_viv</t>
+  </si>
+  <si>
+    <t>T_LOC_MEN_viv</t>
+  </si>
+  <si>
+    <t>UPM_viv</t>
+  </si>
+  <si>
+    <t>D_SEM_viv</t>
+  </si>
+  <si>
+    <t>N_PRO_VIV_viv</t>
+  </si>
+  <si>
+    <t>N_ENT_viv</t>
+  </si>
+  <si>
+    <t>PER_viv</t>
+  </si>
+  <si>
+    <t>P1_sdmgf</t>
+  </si>
+  <si>
+    <t>P3_sdmgf</t>
+  </si>
+  <si>
+    <t>UR_viv</t>
+  </si>
+  <si>
+    <t>FAC_TRI_viv</t>
+  </si>
+  <si>
+    <t>FAC_MEN_viv</t>
+  </si>
+  <si>
+    <t>Ya limpias R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,6 +2289,66 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1134,7 +2380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1158,11 +2404,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1471,11 +2760,5590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931E6CF3-FC75-433F-9FAD-7D54ECFFF708}">
+  <dimension ref="A1:J431"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8.88671875" style="16"/>
+    <col min="9" max="9" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="J1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3" s="16">
+        <v>2</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="16">
+        <v>3</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="16">
+        <v>4</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H7" s="16">
+        <v>6</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="J7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="16">
+        <v>7</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="J8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="16">
+        <v>8</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="J9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" s="16">
+        <v>9</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="16">
+        <v>10</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="J11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="16">
+        <v>11</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E13" t="s">
+        <v>387</v>
+      </c>
+      <c r="H13" s="16">
+        <v>12</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="J13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="16">
+        <v>13</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="J14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H15" s="16">
+        <v>14</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="J15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E16" t="s">
+        <v>627</v>
+      </c>
+      <c r="H16" s="16">
+        <v>15</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="J16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" t="s">
+        <v>628</v>
+      </c>
+      <c r="H17" s="16">
+        <v>16</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="J17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E18" t="s">
+        <v>629</v>
+      </c>
+      <c r="H18" s="16">
+        <v>17</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E19" t="s">
+        <v>630</v>
+      </c>
+      <c r="H19" s="16">
+        <v>18</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="E20" t="s">
+        <v>631</v>
+      </c>
+      <c r="H20" s="16">
+        <v>19</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="J20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E21" t="s">
+        <v>632</v>
+      </c>
+      <c r="H21" s="16">
+        <v>20</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="J21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E22" t="s">
+        <v>633</v>
+      </c>
+      <c r="H22" s="16">
+        <v>21</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="J22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E23" t="s">
+        <v>634</v>
+      </c>
+      <c r="H23" s="16">
+        <v>22</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E24" t="s">
+        <v>635</v>
+      </c>
+      <c r="H24" s="16">
+        <v>23</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="J24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="E25" t="s">
+        <v>636</v>
+      </c>
+      <c r="H25" s="16">
+        <v>24</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="J25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E26" t="s">
+        <v>637</v>
+      </c>
+      <c r="H26" s="16">
+        <v>25</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="J26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="E27" t="s">
+        <v>638</v>
+      </c>
+      <c r="H27" s="16">
+        <v>26</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="J27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E28" t="s">
+        <v>639</v>
+      </c>
+      <c r="H28" s="16">
+        <v>27</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="J28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" t="s">
+        <v>640</v>
+      </c>
+      <c r="H29" s="16">
+        <v>28</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="J29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E30" t="s">
+        <v>641</v>
+      </c>
+      <c r="H30" s="16">
+        <v>29</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E31" t="s">
+        <v>642</v>
+      </c>
+      <c r="H31" s="16">
+        <v>30</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="J31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E32" t="s">
+        <v>643</v>
+      </c>
+      <c r="H32" s="16">
+        <v>31</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="J32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E33" t="s">
+        <v>644</v>
+      </c>
+      <c r="H33" s="16">
+        <v>32</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="J33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E34" t="s">
+        <v>645</v>
+      </c>
+      <c r="H34" s="16">
+        <v>33</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="J34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E35" t="s">
+        <v>646</v>
+      </c>
+      <c r="H35" s="16">
+        <v>34</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="J35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="E36" t="s">
+        <v>647</v>
+      </c>
+      <c r="H36" s="16">
+        <v>35</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="J36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E37" t="s">
+        <v>648</v>
+      </c>
+      <c r="H37" s="16">
+        <v>36</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="J37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="E38" t="s">
+        <v>649</v>
+      </c>
+      <c r="H38" s="16">
+        <v>37</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="J38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E39" t="s">
+        <v>650</v>
+      </c>
+      <c r="H39" s="16">
+        <v>38</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="J39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="E40" t="s">
+        <v>651</v>
+      </c>
+      <c r="H40" s="16">
+        <v>39</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="J40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E41" t="s">
+        <v>652</v>
+      </c>
+      <c r="H41" s="16">
+        <v>40</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="E42" t="s">
+        <v>653</v>
+      </c>
+      <c r="H42" s="16">
+        <v>41</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="E43" t="s">
+        <v>654</v>
+      </c>
+      <c r="H43" s="16">
+        <v>42</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C44" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E44" t="s">
+        <v>655</v>
+      </c>
+      <c r="H44" s="16">
+        <v>43</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C45" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="E45" t="s">
+        <v>656</v>
+      </c>
+      <c r="H45" s="16">
+        <v>44</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="E46" t="s">
+        <v>657</v>
+      </c>
+      <c r="H46" s="16">
+        <v>45</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="E47" t="s">
+        <v>658</v>
+      </c>
+      <c r="H47" s="16">
+        <v>46</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="E48" t="s">
+        <v>659</v>
+      </c>
+      <c r="H48" s="16">
+        <v>47</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="E49" t="s">
+        <v>660</v>
+      </c>
+      <c r="H49" s="16">
+        <v>48</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="E50" t="s">
+        <v>661</v>
+      </c>
+      <c r="H50" s="16">
+        <v>49</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="E51" t="s">
+        <v>662</v>
+      </c>
+      <c r="H51" s="16">
+        <v>50</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="E52" t="s">
+        <v>663</v>
+      </c>
+      <c r="H52" s="16">
+        <v>51</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="J52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E53" t="s">
+        <v>664</v>
+      </c>
+      <c r="H53" s="16">
+        <v>52</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="E54" t="s">
+        <v>665</v>
+      </c>
+      <c r="H54" s="16">
+        <v>53</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="J54" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C55" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E55" t="s">
+        <v>666</v>
+      </c>
+      <c r="H55" s="16">
+        <v>54</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="E56" t="s">
+        <v>667</v>
+      </c>
+      <c r="H56" s="16">
+        <v>55</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E57" t="s">
+        <v>668</v>
+      </c>
+      <c r="H57" s="16">
+        <v>56</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="J57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="E58" t="s">
+        <v>669</v>
+      </c>
+      <c r="H58" s="16">
+        <v>57</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E59" t="s">
+        <v>670</v>
+      </c>
+      <c r="H59" s="16">
+        <v>58</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="J59" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="E60" t="s">
+        <v>671</v>
+      </c>
+      <c r="H60" s="16">
+        <v>59</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="J60" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E61" t="s">
+        <v>672</v>
+      </c>
+      <c r="H61" s="16">
+        <v>60</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="J61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="E62" t="s">
+        <v>673</v>
+      </c>
+      <c r="H62" s="16">
+        <v>61</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C63" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="E63" t="s">
+        <v>674</v>
+      </c>
+      <c r="H63" s="16">
+        <v>62</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="J63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C64" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E64" t="s">
+        <v>675</v>
+      </c>
+      <c r="H64" s="16">
+        <v>63</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="J64" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E65" t="s">
+        <v>676</v>
+      </c>
+      <c r="H65" s="16">
+        <v>64</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="J65" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" t="s">
+        <v>677</v>
+      </c>
+      <c r="H66" s="16">
+        <v>65</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="E67" t="s">
+        <v>678</v>
+      </c>
+      <c r="H67" s="16">
+        <v>66</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J67" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="E68" t="s">
+        <v>679</v>
+      </c>
+      <c r="H68" s="16">
+        <v>67</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="J68" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="E69" t="s">
+        <v>680</v>
+      </c>
+      <c r="H69" s="16">
+        <v>68</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="J69" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="E70" t="s">
+        <v>681</v>
+      </c>
+      <c r="H70" s="16">
+        <v>69</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="J70" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="E71" t="s">
+        <v>682</v>
+      </c>
+      <c r="H71" s="16">
+        <v>70</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="J71" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C72" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="E72" t="s">
+        <v>683</v>
+      </c>
+      <c r="H72" s="16">
+        <v>71</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="J72" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C73" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="E73" t="s">
+        <v>684</v>
+      </c>
+      <c r="H73" s="16">
+        <v>72</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="J73" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="E74" t="s">
+        <v>685</v>
+      </c>
+      <c r="H74" s="16">
+        <v>73</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="J74" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E75" t="s">
+        <v>686</v>
+      </c>
+      <c r="H75" s="16">
+        <v>74</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="J75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="E76" t="s">
+        <v>687</v>
+      </c>
+      <c r="H76" s="16">
+        <v>75</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="J76" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E77" t="s">
+        <v>688</v>
+      </c>
+      <c r="H77" s="16">
+        <v>76</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="J77" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="E78" t="s">
+        <v>689</v>
+      </c>
+      <c r="H78" s="16">
+        <v>77</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="J78" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E79" t="s">
+        <v>366</v>
+      </c>
+      <c r="H79" s="16">
+        <v>78</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="J79" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="16">
+        <v>79</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="J80" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C81" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E81" t="s">
+        <v>367</v>
+      </c>
+      <c r="H81" s="16">
+        <v>80</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="J81" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C82" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E82" t="s">
+        <v>368</v>
+      </c>
+      <c r="H82" s="16">
+        <v>81</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="J82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="E83" t="s">
+        <v>369</v>
+      </c>
+      <c r="H83" s="16">
+        <v>82</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="J83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="H84" s="16">
+        <v>83</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="J84" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="H85" s="16">
+        <v>84</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="J85" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="H86" s="16">
+        <v>85</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="J86" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="H87" s="16">
+        <v>86</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="J87" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="H88" s="16">
+        <v>87</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="J88" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="H89" s="16">
+        <v>88</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="J89" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C90" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="H90" s="16">
+        <v>89</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="J90" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C91" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="H91" s="16">
+        <v>90</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="J91" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="H92" s="16">
+        <v>91</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="J92" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="H93" s="16">
+        <v>92</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="J93" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="H94" s="16">
+        <v>93</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="J94" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="H95" s="16">
+        <v>94</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="J95" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H96" s="16">
+        <v>95</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="J96" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="H97" s="16">
+        <v>96</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="J97" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="H98" s="16">
+        <v>97</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J98" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C99" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="H99" s="16">
+        <v>98</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="J99" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C100" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H100" s="16">
+        <v>99</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="J100" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C101" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H101" s="16">
+        <v>100</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="J101" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C102" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="H102" s="16">
+        <v>101</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="J102" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C103" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="H103" s="16">
+        <v>102</v>
+      </c>
+      <c r="I103" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="J103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C104" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H104" s="16">
+        <v>103</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="J104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C105" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="H105" s="16">
+        <v>104</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J105" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C106" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="H106" s="16">
+        <v>105</v>
+      </c>
+      <c r="I106" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J106" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C107" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="H107" s="16">
+        <v>106</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="J107" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C108" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="H108" s="16">
+        <v>107</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="J108" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C109" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="H109" s="16">
+        <v>108</v>
+      </c>
+      <c r="I109" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J109" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C110" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="H110" s="16">
+        <v>109</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J110" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C111" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="H111" s="16">
+        <v>110</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="J111" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C112" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="H112" s="16">
+        <v>111</v>
+      </c>
+      <c r="I112" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="J112" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C113" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="H113" s="16">
+        <v>112</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="J113" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C114" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="H114" s="16">
+        <v>113</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="J114" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C115" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="H115" s="16">
+        <v>114</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="J115" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D116" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="H116" s="16">
+        <v>115</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="J116" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D117" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="H117" s="16">
+        <v>116</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="J117" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D118" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="H118" s="16">
+        <v>117</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="J118" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D119" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="H119" s="16">
+        <v>118</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="J119" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D120" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="H120" s="16">
+        <v>119</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="J120" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D121" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="H121" s="16">
+        <v>120</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="J121" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D122" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="H122" s="16">
+        <v>121</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="J122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D123" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="H123" s="16">
+        <v>122</v>
+      </c>
+      <c r="I123" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="J123" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D124" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="H124" s="16">
+        <v>123</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="J124" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D125" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="H125" s="16">
+        <v>124</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="J125" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D126" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="H126" s="16">
+        <v>125</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="J126" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D127" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="H127" s="16">
+        <v>126</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="J127" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D128" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="H128" s="16">
+        <v>127</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J128" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D129" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="H129" s="16">
+        <v>128</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="J129" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D130" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="H130" s="16">
+        <v>129</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="J130" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D131" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="H131" s="16">
+        <v>130</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="J131" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D132" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="H132" s="16">
+        <v>131</v>
+      </c>
+      <c r="I132" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="J132" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D133" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="H133" s="16">
+        <v>132</v>
+      </c>
+      <c r="I133" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="J133" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="134" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D134" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="H134" s="16">
+        <v>133</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="J134" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="135" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D135" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="H135" s="16">
+        <v>134</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="J135" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="136" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D136" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="H136" s="16">
+        <v>135</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="J136" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D137" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="H137" s="16">
+        <v>136</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="J137" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="138" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D138" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="H138" s="16">
+        <v>137</v>
+      </c>
+      <c r="I138" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="J138" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="139" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D139" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="H139" s="16">
+        <v>138</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="J139" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="140" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D140" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="H140" s="16">
+        <v>139</v>
+      </c>
+      <c r="I140" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="J140" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="141" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D141" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="H141" s="16">
+        <v>140</v>
+      </c>
+      <c r="I141" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="J141" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D142" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="H142" s="16">
+        <v>141</v>
+      </c>
+      <c r="I142" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="J142" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="143" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D143" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="H143" s="16">
+        <v>142</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J143" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="144" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D144" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="H144" s="16">
+        <v>143</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="J144" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="145" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D145" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="H145" s="16">
+        <v>144</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="J145" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D146" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="H146" s="16">
+        <v>145</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="J146" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="147" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D147" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="H147" s="16">
+        <v>146</v>
+      </c>
+      <c r="I147" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="J147" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="148" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D148" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="H148" s="16">
+        <v>147</v>
+      </c>
+      <c r="I148" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="J148" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D149" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="H149" s="16">
+        <v>148</v>
+      </c>
+      <c r="I149" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="J149" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D150" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="H150" s="16">
+        <v>149</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="J150" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D151" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="H151" s="16">
+        <v>150</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="J151" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="152" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D152" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="H152" s="16">
+        <v>151</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="J152" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="153" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D153" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="H153" s="16">
+        <v>152</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="J153" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D154" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="H154" s="16">
+        <v>153</v>
+      </c>
+      <c r="I154" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="J154" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="155" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D155" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="H155" s="16">
+        <v>154</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="J155" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="156" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D156" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="H156" s="16">
+        <v>155</v>
+      </c>
+      <c r="I156" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="J156" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="157" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D157" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="H157" s="16">
+        <v>156</v>
+      </c>
+      <c r="I157" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="J157" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="158" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D158" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="H158" s="16">
+        <v>157</v>
+      </c>
+      <c r="I158" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="J158" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="159" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D159" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="H159" s="16">
+        <v>158</v>
+      </c>
+      <c r="I159" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="J159" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="160" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D160" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="H160" s="16">
+        <v>159</v>
+      </c>
+      <c r="I160" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="J160" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D161" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="H161" s="16">
+        <v>160</v>
+      </c>
+      <c r="I161" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="J161" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="162" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D162" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="H162" s="16">
+        <v>161</v>
+      </c>
+      <c r="I162" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="J162" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="163" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D163" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="H163" s="16">
+        <v>162</v>
+      </c>
+      <c r="I163" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="J163" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="164" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D164" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="H164" s="16">
+        <v>163</v>
+      </c>
+      <c r="I164" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="J164" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="165" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D165" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="H165" s="16">
+        <v>164</v>
+      </c>
+      <c r="I165" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="J165" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="166" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D166" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="H166" s="16">
+        <v>165</v>
+      </c>
+      <c r="I166" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="J166" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="167" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D167" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="H167" s="16">
+        <v>166</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="J167" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="168" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D168" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="H168" s="16">
+        <v>167</v>
+      </c>
+      <c r="I168" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="J168" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="169" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D169" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H169" s="16">
+        <v>168</v>
+      </c>
+      <c r="I169" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="J169" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="170" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D170" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H170" s="16">
+        <v>169</v>
+      </c>
+      <c r="I170" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="J170" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="171" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D171" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H171" s="16">
+        <v>170</v>
+      </c>
+      <c r="I171" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="J171" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="172" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D172" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="H172" s="16">
+        <v>171</v>
+      </c>
+      <c r="I172" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="J172" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="173" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D173" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="H173" s="16">
+        <v>172</v>
+      </c>
+      <c r="I173" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="J173" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="174" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H174" s="16">
+        <v>173</v>
+      </c>
+      <c r="I174" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="J174" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="175" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H175" s="16">
+        <v>174</v>
+      </c>
+      <c r="I175" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="J175" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H176" s="16">
+        <v>175</v>
+      </c>
+      <c r="I176" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="J176" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H177" s="16">
+        <v>176</v>
+      </c>
+      <c r="I177" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="J177" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H178" s="16">
+        <v>177</v>
+      </c>
+      <c r="I178" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="J178" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H179" s="16">
+        <v>178</v>
+      </c>
+      <c r="I179" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="J179" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H180" s="16">
+        <v>179</v>
+      </c>
+      <c r="I180" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="J180" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H181" s="16">
+        <v>180</v>
+      </c>
+      <c r="I181" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="J181" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H182" s="16">
+        <v>181</v>
+      </c>
+      <c r="I182" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="J182" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H183" s="16">
+        <v>182</v>
+      </c>
+      <c r="I183" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="J183" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H184" s="16">
+        <v>183</v>
+      </c>
+      <c r="I184" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="J184" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H185" s="16">
+        <v>184</v>
+      </c>
+      <c r="I185" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="J185" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H186" s="16">
+        <v>185</v>
+      </c>
+      <c r="I186" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="J186" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H187" s="16">
+        <v>186</v>
+      </c>
+      <c r="I187" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="J187" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H188" s="16">
+        <v>187</v>
+      </c>
+      <c r="I188" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="J188" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H189" s="16">
+        <v>188</v>
+      </c>
+      <c r="I189" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="J189" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H190" s="16">
+        <v>189</v>
+      </c>
+      <c r="I190" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="J190" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H191" s="16">
+        <v>190</v>
+      </c>
+      <c r="I191" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="J191" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H192" s="16">
+        <v>191</v>
+      </c>
+      <c r="I192" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="J192" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H193" s="16">
+        <v>192</v>
+      </c>
+      <c r="I193" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="J193" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H194" s="16">
+        <v>193</v>
+      </c>
+      <c r="I194" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="J194" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H195" s="16">
+        <v>194</v>
+      </c>
+      <c r="I195" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="J195" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H196" s="16">
+        <v>195</v>
+      </c>
+      <c r="I196" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="J196" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H197" s="16">
+        <v>196</v>
+      </c>
+      <c r="I197" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="J197" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H198" s="16">
+        <v>197</v>
+      </c>
+      <c r="I198" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="J198" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H199" s="16">
+        <v>198</v>
+      </c>
+      <c r="I199" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="J199" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H200" s="16">
+        <v>199</v>
+      </c>
+      <c r="I200" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="J200" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H201" s="16">
+        <v>200</v>
+      </c>
+      <c r="I201" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="J201" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H202" s="16">
+        <v>201</v>
+      </c>
+      <c r="I202" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="J202" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H203" s="16">
+        <v>202</v>
+      </c>
+      <c r="I203" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="J203" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H204" s="16">
+        <v>203</v>
+      </c>
+      <c r="I204" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="J204" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H205" s="16">
+        <v>204</v>
+      </c>
+      <c r="I205" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="J205" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H206" s="16">
+        <v>205</v>
+      </c>
+      <c r="I206" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="J206" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H207" s="16">
+        <v>206</v>
+      </c>
+      <c r="I207" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="J207" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H208" s="16">
+        <v>207</v>
+      </c>
+      <c r="I208" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="J208" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H209" s="16">
+        <v>208</v>
+      </c>
+      <c r="I209" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="J209" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H210" s="16">
+        <v>209</v>
+      </c>
+      <c r="I210" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="J210" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H211" s="16">
+        <v>210</v>
+      </c>
+      <c r="I211" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="J211" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H212" s="16">
+        <v>211</v>
+      </c>
+      <c r="I212" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="J212" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H213" s="16">
+        <v>212</v>
+      </c>
+      <c r="I213" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="J213" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H214" s="16">
+        <v>213</v>
+      </c>
+      <c r="I214" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="J214" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H215" s="16">
+        <v>214</v>
+      </c>
+      <c r="I215" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="J215" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H216" s="16">
+        <v>215</v>
+      </c>
+      <c r="I216" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="J216" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H217" s="16">
+        <v>216</v>
+      </c>
+      <c r="I217" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="J217" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H218" s="16">
+        <v>217</v>
+      </c>
+      <c r="I218" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="J218" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H219" s="16">
+        <v>218</v>
+      </c>
+      <c r="I219" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="J219" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H220" s="16">
+        <v>219</v>
+      </c>
+      <c r="I220" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="J220" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H221" s="16">
+        <v>220</v>
+      </c>
+      <c r="I221" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="J221" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H222" s="16">
+        <v>221</v>
+      </c>
+      <c r="I222" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="J222" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H223" s="16">
+        <v>222</v>
+      </c>
+      <c r="I223" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="J223" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H224" s="16">
+        <v>223</v>
+      </c>
+      <c r="I224" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="J224" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="225" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H225" s="16">
+        <v>224</v>
+      </c>
+      <c r="I225" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="J225" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="226" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H226" s="16">
+        <v>225</v>
+      </c>
+      <c r="I226" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="J226" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="227" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H227" s="16">
+        <v>226</v>
+      </c>
+      <c r="I227" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="J227" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="228" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H228" s="16">
+        <v>227</v>
+      </c>
+      <c r="I228" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="J228" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="229" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H229" s="16">
+        <v>228</v>
+      </c>
+      <c r="I229" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="J229" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="230" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H230" s="16">
+        <v>229</v>
+      </c>
+      <c r="I230" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="J230" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="231" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H231" s="16">
+        <v>230</v>
+      </c>
+      <c r="I231" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="J231" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="232" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H232" s="16">
+        <v>231</v>
+      </c>
+      <c r="I232" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="J232" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="233" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H233" s="16">
+        <v>232</v>
+      </c>
+      <c r="I233" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="J233" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="234" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H234" s="16">
+        <v>233</v>
+      </c>
+      <c r="I234" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="J234" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="235" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H235" s="16">
+        <v>234</v>
+      </c>
+      <c r="I235" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="J235" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="236" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H236" s="16">
+        <v>235</v>
+      </c>
+      <c r="I236" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="J236" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="237" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H237" s="16">
+        <v>236</v>
+      </c>
+      <c r="I237" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="J237" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="238" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H238" s="16">
+        <v>237</v>
+      </c>
+      <c r="I238" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="J238" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="239" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H239" s="16">
+        <v>238</v>
+      </c>
+      <c r="I239" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="J239" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="240" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H240" s="16">
+        <v>239</v>
+      </c>
+      <c r="I240" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="J240" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="241" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H241" s="16">
+        <v>240</v>
+      </c>
+      <c r="I241" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="J241" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="242" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H242" s="16">
+        <v>241</v>
+      </c>
+      <c r="I242" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="J242" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="243" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H243" s="16">
+        <v>242</v>
+      </c>
+      <c r="I243" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="J243" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="244" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H244" s="16">
+        <v>243</v>
+      </c>
+      <c r="I244" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="J244" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="245" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H245" s="16">
+        <v>244</v>
+      </c>
+      <c r="I245" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="J245" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="246" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H246" s="16">
+        <v>245</v>
+      </c>
+      <c r="I246" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="J246" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="247" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H247" s="16">
+        <v>246</v>
+      </c>
+      <c r="I247" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="J247" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="248" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H248" s="16">
+        <v>247</v>
+      </c>
+      <c r="I248" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="J248" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="249" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H249" s="16">
+        <v>248</v>
+      </c>
+      <c r="I249" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="J249" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="250" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H250" s="16">
+        <v>249</v>
+      </c>
+      <c r="I250" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="J250" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="251" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H251" s="16">
+        <v>250</v>
+      </c>
+      <c r="I251" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="J251" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="252" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H252" s="16">
+        <v>251</v>
+      </c>
+      <c r="I252" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="J252" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="253" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H253" s="16">
+        <v>252</v>
+      </c>
+      <c r="I253" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="J253" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="254" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H254" s="16">
+        <v>253</v>
+      </c>
+      <c r="I254" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="J254" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="255" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H255" s="16">
+        <v>254</v>
+      </c>
+      <c r="I255" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="J255" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="256" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H256" s="16">
+        <v>255</v>
+      </c>
+      <c r="I256" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="J256" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="257" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H257" s="16">
+        <v>256</v>
+      </c>
+      <c r="I257" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="J257" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="258" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H258" s="16">
+        <v>257</v>
+      </c>
+      <c r="I258" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="J258" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="259" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H259" s="16">
+        <v>258</v>
+      </c>
+      <c r="I259" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="J259" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="260" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H260" s="16">
+        <v>259</v>
+      </c>
+      <c r="I260" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="J260" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="261" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H261" s="16">
+        <v>260</v>
+      </c>
+      <c r="I261" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="J261" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="262" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H262" s="16">
+        <v>261</v>
+      </c>
+      <c r="I262" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="J262" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="263" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H263" s="16">
+        <v>262</v>
+      </c>
+      <c r="I263" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="J263" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="264" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H264" s="16">
+        <v>263</v>
+      </c>
+      <c r="I264" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="J264" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="265" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H265" s="16">
+        <v>264</v>
+      </c>
+      <c r="I265" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="J265" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="266" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H266" s="16">
+        <v>265</v>
+      </c>
+      <c r="I266" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="J266" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="267" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H267" s="16">
+        <v>266</v>
+      </c>
+      <c r="I267" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="J267" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="268" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H268" s="16">
+        <v>267</v>
+      </c>
+      <c r="I268" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="J268" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="269" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H269" s="16">
+        <v>268</v>
+      </c>
+      <c r="I269" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="J269" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="270" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H270" s="16">
+        <v>269</v>
+      </c>
+      <c r="I270" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="J270" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="271" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H271" s="16">
+        <v>270</v>
+      </c>
+      <c r="I271" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="J271" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="272" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H272" s="16">
+        <v>271</v>
+      </c>
+      <c r="I272" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="J272" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="273" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H273" s="16">
+        <v>272</v>
+      </c>
+      <c r="I273" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="J273" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="274" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H274" s="16">
+        <v>273</v>
+      </c>
+      <c r="I274" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="J274" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="275" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H275" s="16">
+        <v>274</v>
+      </c>
+      <c r="I275" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="J275" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="276" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H276" s="16">
+        <v>275</v>
+      </c>
+      <c r="I276" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="J276" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="277" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H277" s="16">
+        <v>276</v>
+      </c>
+      <c r="I277" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="J277" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="278" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H278" s="16">
+        <v>277</v>
+      </c>
+      <c r="I278" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="J278" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="279" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H279" s="16">
+        <v>278</v>
+      </c>
+      <c r="I279" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="J279" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="280" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H280" s="16">
+        <v>279</v>
+      </c>
+      <c r="I280" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="J280" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="281" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H281" s="16">
+        <v>280</v>
+      </c>
+      <c r="I281" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="J281" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="282" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H282" s="16">
+        <v>281</v>
+      </c>
+      <c r="I282" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="J282" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="283" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H283" s="16">
+        <v>282</v>
+      </c>
+      <c r="I283" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="J283" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="284" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H284" s="16">
+        <v>283</v>
+      </c>
+      <c r="I284" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="J284" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="285" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H285" s="16">
+        <v>284</v>
+      </c>
+      <c r="I285" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="J285" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="286" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H286" s="16">
+        <v>285</v>
+      </c>
+      <c r="I286" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="J286" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="287" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H287" s="16">
+        <v>286</v>
+      </c>
+      <c r="I287" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="J287" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="288" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H288" s="16">
+        <v>287</v>
+      </c>
+      <c r="I288" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="J288" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="289" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H289" s="16">
+        <v>288</v>
+      </c>
+      <c r="I289" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="J289" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="290" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H290" s="16">
+        <v>289</v>
+      </c>
+      <c r="I290" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="J290" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="291" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H291" s="16">
+        <v>290</v>
+      </c>
+      <c r="I291" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="J291" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="292" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H292" s="16">
+        <v>291</v>
+      </c>
+      <c r="I292" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="J292" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="293" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H293" s="16">
+        <v>292</v>
+      </c>
+      <c r="I293" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="J293" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="294" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H294" s="16">
+        <v>293</v>
+      </c>
+      <c r="I294" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="J294" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="295" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H295" s="16">
+        <v>294</v>
+      </c>
+      <c r="I295" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="J295" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="296" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H296" s="16">
+        <v>295</v>
+      </c>
+      <c r="I296" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="J296" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="297" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H297" s="16">
+        <v>296</v>
+      </c>
+      <c r="I297" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="J297" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="298" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H298" s="16">
+        <v>297</v>
+      </c>
+      <c r="I298" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="J298" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="299" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H299" s="16">
+        <v>298</v>
+      </c>
+      <c r="I299" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="J299" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="300" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H300" s="16">
+        <v>299</v>
+      </c>
+      <c r="I300" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="J300" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="301" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H301" s="16">
+        <v>300</v>
+      </c>
+      <c r="I301" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="J301" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="302" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H302" s="16">
+        <v>301</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="J302" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="303" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H303" s="16">
+        <v>302</v>
+      </c>
+      <c r="I303" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="J303" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="304" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H304" s="16">
+        <v>303</v>
+      </c>
+      <c r="I304" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="J304" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="305" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H305" s="16">
+        <v>304</v>
+      </c>
+      <c r="I305" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="J305" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="306" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H306" s="16">
+        <v>305</v>
+      </c>
+      <c r="I306" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="J306" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="307" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H307" s="16">
+        <v>306</v>
+      </c>
+      <c r="I307" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="J307" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="308" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H308" s="16">
+        <v>307</v>
+      </c>
+      <c r="I308" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="J308" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="309" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H309" s="16">
+        <v>308</v>
+      </c>
+      <c r="I309" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="J309" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H310" s="16">
+        <v>309</v>
+      </c>
+      <c r="I310" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="J310" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="311" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H311" s="16">
+        <v>310</v>
+      </c>
+      <c r="I311" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="J311" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="312" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H312" s="16">
+        <v>311</v>
+      </c>
+      <c r="I312" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="J312" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="313" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H313" s="16">
+        <v>312</v>
+      </c>
+      <c r="I313" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="J313" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="314" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H314" s="16">
+        <v>313</v>
+      </c>
+      <c r="I314" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="J314" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="315" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H315" s="16">
+        <v>314</v>
+      </c>
+      <c r="I315" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="J315" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="316" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H316" s="16">
+        <v>315</v>
+      </c>
+      <c r="I316" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="J316" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="317" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H317" s="16">
+        <v>316</v>
+      </c>
+      <c r="I317" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="J317" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="318" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H318" s="16">
+        <v>317</v>
+      </c>
+      <c r="I318" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="J318" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="319" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H319" s="16">
+        <v>318</v>
+      </c>
+      <c r="I319" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="J319" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="320" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H320" s="16">
+        <v>319</v>
+      </c>
+      <c r="I320" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="J320" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="321" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H321" s="16">
+        <v>320</v>
+      </c>
+      <c r="I321" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="J321" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="322" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H322" s="16">
+        <v>321</v>
+      </c>
+      <c r="I322" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="J322" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="323" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H323" s="16">
+        <v>322</v>
+      </c>
+      <c r="I323" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="J323" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="324" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H324" s="16">
+        <v>323</v>
+      </c>
+      <c r="I324" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="J324" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="325" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H325" s="16">
+        <v>324</v>
+      </c>
+      <c r="I325" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="J325" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="326" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H326" s="16">
+        <v>325</v>
+      </c>
+      <c r="I326" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="J326" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="327" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H327" s="16">
+        <v>326</v>
+      </c>
+      <c r="I327" s="16" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="328" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H328" s="16">
+        <v>327</v>
+      </c>
+      <c r="I328" s="16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="329" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H329" s="16">
+        <v>328</v>
+      </c>
+      <c r="I329" s="16" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="330" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H330" s="16">
+        <v>329</v>
+      </c>
+      <c r="I330" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="331" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H331" s="16">
+        <v>330</v>
+      </c>
+      <c r="I331" s="16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="332" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H332" s="16">
+        <v>331</v>
+      </c>
+      <c r="I332" s="16" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="333" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H333" s="16">
+        <v>332</v>
+      </c>
+      <c r="I333" s="16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="334" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H334" s="16">
+        <v>333</v>
+      </c>
+      <c r="I334" s="16" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="335" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H335" s="16">
+        <v>334</v>
+      </c>
+      <c r="I335" s="16" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="336" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H336" s="16">
+        <v>335</v>
+      </c>
+      <c r="I336" s="16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="337" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H337" s="16">
+        <v>336</v>
+      </c>
+      <c r="I337" s="16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="338" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H338" s="16">
+        <v>337</v>
+      </c>
+      <c r="I338" s="16" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="339" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H339" s="16">
+        <v>338</v>
+      </c>
+      <c r="I339" s="16" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="340" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H340" s="16">
+        <v>339</v>
+      </c>
+      <c r="I340" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="341" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H341" s="16">
+        <v>340</v>
+      </c>
+      <c r="I341" s="16" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="342" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H342" s="16">
+        <v>341</v>
+      </c>
+      <c r="I342" s="16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="343" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H343" s="16">
+        <v>342</v>
+      </c>
+      <c r="I343"/>
+    </row>
+    <row r="344" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H344" s="16">
+        <v>343</v>
+      </c>
+      <c r="I344"/>
+    </row>
+    <row r="345" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H345" s="16">
+        <v>344</v>
+      </c>
+      <c r="I345"/>
+    </row>
+    <row r="346" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H346" s="16">
+        <v>345</v>
+      </c>
+      <c r="I346"/>
+    </row>
+    <row r="347" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H347" s="16">
+        <v>346</v>
+      </c>
+      <c r="I347"/>
+    </row>
+    <row r="348" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H348" s="16">
+        <v>347</v>
+      </c>
+      <c r="I348"/>
+    </row>
+    <row r="349" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H349" s="16">
+        <v>348</v>
+      </c>
+      <c r="I349"/>
+    </row>
+    <row r="350" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H350" s="16">
+        <v>349</v>
+      </c>
+      <c r="I350"/>
+    </row>
+    <row r="351" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H351" s="16">
+        <v>350</v>
+      </c>
+      <c r="I351"/>
+    </row>
+    <row r="352" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H352" s="16">
+        <v>351</v>
+      </c>
+      <c r="I352"/>
+    </row>
+    <row r="353" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H353" s="16">
+        <v>352</v>
+      </c>
+      <c r="I353"/>
+    </row>
+    <row r="354" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H354" s="16">
+        <v>353</v>
+      </c>
+      <c r="I354"/>
+    </row>
+    <row r="355" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H355" s="16">
+        <v>354</v>
+      </c>
+      <c r="I355"/>
+    </row>
+    <row r="356" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H356" s="16">
+        <v>355</v>
+      </c>
+      <c r="I356"/>
+    </row>
+    <row r="357" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H357" s="16">
+        <v>356</v>
+      </c>
+      <c r="I357"/>
+    </row>
+    <row r="358" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H358" s="16">
+        <v>357</v>
+      </c>
+      <c r="I358"/>
+    </row>
+    <row r="359" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H359" s="16">
+        <v>358</v>
+      </c>
+      <c r="I359"/>
+    </row>
+    <row r="360" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H360" s="16">
+        <v>359</v>
+      </c>
+      <c r="I360"/>
+    </row>
+    <row r="361" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H361" s="16">
+        <v>360</v>
+      </c>
+      <c r="I361"/>
+    </row>
+    <row r="362" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H362" s="16">
+        <v>361</v>
+      </c>
+      <c r="I362"/>
+    </row>
+    <row r="363" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H363" s="16">
+        <v>362</v>
+      </c>
+      <c r="I363"/>
+    </row>
+    <row r="364" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H364" s="16">
+        <v>363</v>
+      </c>
+      <c r="I364"/>
+    </row>
+    <row r="365" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H365" s="16">
+        <v>364</v>
+      </c>
+      <c r="I365"/>
+    </row>
+    <row r="366" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H366" s="16">
+        <v>365</v>
+      </c>
+      <c r="I366"/>
+    </row>
+    <row r="367" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H367" s="16">
+        <v>366</v>
+      </c>
+      <c r="I367"/>
+    </row>
+    <row r="368" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H368" s="16">
+        <v>367</v>
+      </c>
+      <c r="I368"/>
+    </row>
+    <row r="369" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H369" s="16">
+        <v>368</v>
+      </c>
+      <c r="I369"/>
+    </row>
+    <row r="370" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H370" s="16">
+        <v>369</v>
+      </c>
+      <c r="I370"/>
+    </row>
+    <row r="371" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H371" s="16">
+        <v>370</v>
+      </c>
+      <c r="I371"/>
+    </row>
+    <row r="372" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H372" s="16">
+        <v>371</v>
+      </c>
+      <c r="I372"/>
+    </row>
+    <row r="373" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H373" s="16">
+        <v>372</v>
+      </c>
+      <c r="I373"/>
+    </row>
+    <row r="374" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H374" s="16">
+        <v>373</v>
+      </c>
+      <c r="I374"/>
+    </row>
+    <row r="375" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H375" s="16">
+        <v>374</v>
+      </c>
+      <c r="I375"/>
+    </row>
+    <row r="376" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H376" s="16">
+        <v>375</v>
+      </c>
+      <c r="I376"/>
+    </row>
+    <row r="377" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H377" s="16">
+        <v>376</v>
+      </c>
+      <c r="I377"/>
+    </row>
+    <row r="378" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H378" s="16">
+        <v>377</v>
+      </c>
+      <c r="I378"/>
+    </row>
+    <row r="379" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H379" s="16">
+        <v>378</v>
+      </c>
+      <c r="I379"/>
+    </row>
+    <row r="380" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H380" s="16">
+        <v>379</v>
+      </c>
+      <c r="I380"/>
+    </row>
+    <row r="381" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H381" s="16">
+        <v>380</v>
+      </c>
+      <c r="I381"/>
+    </row>
+    <row r="382" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H382" s="16">
+        <v>381</v>
+      </c>
+      <c r="I382"/>
+    </row>
+    <row r="383" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H383" s="16">
+        <v>382</v>
+      </c>
+      <c r="I383"/>
+    </row>
+    <row r="384" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H384" s="16">
+        <v>383</v>
+      </c>
+      <c r="I384"/>
+    </row>
+    <row r="385" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H385" s="16">
+        <v>384</v>
+      </c>
+      <c r="I385"/>
+    </row>
+    <row r="386" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H386" s="16">
+        <v>385</v>
+      </c>
+      <c r="I386"/>
+    </row>
+    <row r="387" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H387" s="16">
+        <v>386</v>
+      </c>
+      <c r="I387"/>
+    </row>
+    <row r="388" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H388" s="16">
+        <v>387</v>
+      </c>
+      <c r="I388"/>
+    </row>
+    <row r="389" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H389" s="16">
+        <v>388</v>
+      </c>
+      <c r="I389"/>
+    </row>
+    <row r="390" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H390" s="16">
+        <v>389</v>
+      </c>
+      <c r="I390"/>
+    </row>
+    <row r="391" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H391" s="16">
+        <v>390</v>
+      </c>
+      <c r="I391"/>
+    </row>
+    <row r="392" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H392" s="16">
+        <v>391</v>
+      </c>
+      <c r="I392"/>
+    </row>
+    <row r="393" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H393" s="16">
+        <v>392</v>
+      </c>
+      <c r="I393"/>
+    </row>
+    <row r="394" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H394" s="16">
+        <v>393</v>
+      </c>
+      <c r="I394"/>
+    </row>
+    <row r="395" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H395" s="16">
+        <v>394</v>
+      </c>
+      <c r="I395"/>
+    </row>
+    <row r="396" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H396" s="16">
+        <v>395</v>
+      </c>
+      <c r="I396"/>
+    </row>
+    <row r="397" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H397" s="16">
+        <v>396</v>
+      </c>
+      <c r="I397"/>
+    </row>
+    <row r="398" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H398" s="16">
+        <v>397</v>
+      </c>
+      <c r="I398"/>
+    </row>
+    <row r="399" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H399" s="16">
+        <v>398</v>
+      </c>
+      <c r="I399"/>
+    </row>
+    <row r="400" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H400" s="16">
+        <v>399</v>
+      </c>
+      <c r="I400"/>
+    </row>
+    <row r="401" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H401" s="16">
+        <v>400</v>
+      </c>
+      <c r="I401"/>
+    </row>
+    <row r="402" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H402" s="16">
+        <v>401</v>
+      </c>
+      <c r="I402"/>
+    </row>
+    <row r="403" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H403" s="16">
+        <v>402</v>
+      </c>
+      <c r="I403"/>
+    </row>
+    <row r="404" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H404" s="16">
+        <v>403</v>
+      </c>
+      <c r="I404"/>
+    </row>
+    <row r="405" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H405" s="16">
+        <v>404</v>
+      </c>
+      <c r="I405"/>
+    </row>
+    <row r="406" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H406" s="16">
+        <v>405</v>
+      </c>
+      <c r="I406"/>
+    </row>
+    <row r="407" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H407" s="16">
+        <v>406</v>
+      </c>
+      <c r="I407"/>
+    </row>
+    <row r="408" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H408" s="16">
+        <v>407</v>
+      </c>
+      <c r="I408"/>
+    </row>
+    <row r="409" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H409" s="16">
+        <v>408</v>
+      </c>
+      <c r="I409"/>
+    </row>
+    <row r="410" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H410" s="16">
+        <v>409</v>
+      </c>
+      <c r="I410"/>
+    </row>
+    <row r="411" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H411" s="16">
+        <v>410</v>
+      </c>
+      <c r="I411"/>
+    </row>
+    <row r="412" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H412" s="16">
+        <v>411</v>
+      </c>
+      <c r="I412"/>
+    </row>
+    <row r="413" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H413" s="16">
+        <v>412</v>
+      </c>
+      <c r="I413"/>
+    </row>
+    <row r="414" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H414" s="16">
+        <v>413</v>
+      </c>
+      <c r="I414"/>
+    </row>
+    <row r="415" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H415" s="16">
+        <v>414</v>
+      </c>
+      <c r="I415"/>
+    </row>
+    <row r="416" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H416" s="16">
+        <v>415</v>
+      </c>
+      <c r="I416"/>
+    </row>
+    <row r="417" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H417" s="16">
+        <v>416</v>
+      </c>
+      <c r="I417"/>
+    </row>
+    <row r="418" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H418" s="16">
+        <v>417</v>
+      </c>
+      <c r="I418"/>
+    </row>
+    <row r="419" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H419" s="16">
+        <v>418</v>
+      </c>
+      <c r="I419"/>
+    </row>
+    <row r="420" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H420" s="16">
+        <v>419</v>
+      </c>
+      <c r="I420"/>
+    </row>
+    <row r="421" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H421" s="16">
+        <v>420</v>
+      </c>
+      <c r="I421"/>
+    </row>
+    <row r="422" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H422" s="16">
+        <v>421</v>
+      </c>
+      <c r="I422"/>
+    </row>
+    <row r="423" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H423" s="16">
+        <v>422</v>
+      </c>
+      <c r="I423"/>
+    </row>
+    <row r="424" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H424" s="16">
+        <v>423</v>
+      </c>
+      <c r="I424"/>
+    </row>
+    <row r="425" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H425" s="16">
+        <v>424</v>
+      </c>
+      <c r="I425"/>
+    </row>
+    <row r="426" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H426" s="16">
+        <v>425</v>
+      </c>
+      <c r="I426"/>
+    </row>
+    <row r="427" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H427" s="16">
+        <v>426</v>
+      </c>
+      <c r="I427"/>
+    </row>
+    <row r="428" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H428" s="16">
+        <v>427</v>
+      </c>
+      <c r="I428"/>
+    </row>
+    <row r="429" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H429" s="16">
+        <v>428</v>
+      </c>
+      <c r="I429"/>
+    </row>
+    <row r="430" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H430" s="16">
+        <v>429</v>
+      </c>
+      <c r="I430"/>
+    </row>
+    <row r="431" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H431" s="16">
+        <v>430</v>
+      </c>
+      <c r="I431"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J326">
+    <sortCondition ref="J2:J326"/>
+  </sortState>
+  <conditionalFormatting sqref="I2:I342">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C503C87B-C837-47FF-82B4-CE1408528C9E}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2426,12 +9294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75002CDE-FE64-40F9-9C11-F0A56AAFCB34}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3551,12 +10419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44880787-98E2-422C-9EA2-3D25B0D4C2A6}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5764,12 +12632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77D4591-6516-46E3-A472-D440B66C4E56}">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B173"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9068,12 +15936,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4A0877-1A51-4C70-9218-77EFF2D88F9D}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
